--- a/template_input.xlsx
+++ b/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIO2\Desktop\PEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni.scognamiglio/Desktop/promobot_exe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42DD6F-0237-43AE-B33D-D32DA15B4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF047B9-A9B0-9442-B422-4357F7DF0CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Promo_Name</t>
   </si>
@@ -67,12 +67,6 @@
     <t>%PARTNER</t>
   </si>
   <si>
-    <t>Promo_ID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>ROM</t>
   </si>
   <si>
@@ -92,18 +86,6 @@
   </si>
   <si>
     <t>Example1</t>
-  </si>
-  <si>
-    <t>Store_Address4</t>
-  </si>
-  <si>
-    <t>Store_Address5</t>
-  </si>
-  <si>
-    <t>Product_ID4</t>
-  </si>
-  <si>
-    <t>Product_ID5</t>
   </si>
 </sst>
 </file>
@@ -205,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,34 +507,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,57 +552,41 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>11930</v>
@@ -633,8 +597,14 @@
       <c r="E2" s="2">
         <v>99856</v>
       </c>
-      <c r="I2" s="2">
+      <c r="G2" s="2">
         <v>1475055</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
@@ -642,27 +612,20 @@
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="2">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="O2" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
